--- a/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>NDVLY</t>
   </si>
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -711,11 +712,11 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>8715500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8718200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -738,11 +739,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>6384300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6271200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -765,11 +766,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>2331300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2446900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -859,11 +860,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>127500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -886,26 +887,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,11 +924,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>7676400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7638400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -950,11 +951,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>1039200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1079700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -990,11 +991,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>471600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>635900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1017,8 +1018,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1940600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1044,11 +1045,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>333400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>395400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1071,11 +1072,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>1177300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1320200</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1098,11 +1099,11 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>627700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>723400</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1152,11 +1153,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>549600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>596800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1179,11 +1180,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>147100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1234,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1314,11 +1315,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-471600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-635900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1341,11 +1342,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>147100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1395,11 +1396,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>147100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1480,8 +1481,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>7374300</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1507,8 +1508,8 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>1831400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1534,8 +1535,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>2531600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1562,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>10776300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1588,8 +1589,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>2167400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1615,8 +1616,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>24681000</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1643,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>17474100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1669,8 +1670,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>33285800</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1696,8 +1697,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>2735100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1777,8 +1778,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>3070700</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1832,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>81246900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1884,8 +1885,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>4405000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1911,8 +1912,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>6587200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1938,8 +1939,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>11088100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1965,8 +1966,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>22080300</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1994,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>18853300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2019,8 +2020,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>3503000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2128,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>47902200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2275,8 +2276,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>17246100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2383,8 +2384,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>33344700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2469,11 +2470,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>147100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2510,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>430100</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2671,8 +2672,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>952100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2712,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-709200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2792,8 +2793,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-416600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2834,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-662400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2940,8 +2941,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-731100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2967,8 +2968,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-221700</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2994,8 +2995,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-417300</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
@@ -713,10 +713,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8715500</v>
+        <v>8698500</v>
       </c>
       <c r="E8" s="3">
-        <v>8718200</v>
+        <v>8701100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6384300</v>
+        <v>6371800</v>
       </c>
       <c r="E9" s="3">
-        <v>6271200</v>
+        <v>6258900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -767,10 +767,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2331300</v>
+        <v>2326700</v>
       </c>
       <c r="E10" s="3">
-        <v>2446900</v>
+        <v>2442200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -861,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36300</v>
+        <v>36200</v>
       </c>
       <c r="E14" s="3">
-        <v>127500</v>
+        <v>127200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7676400</v>
+        <v>7661400</v>
       </c>
       <c r="E17" s="3">
-        <v>7638400</v>
+        <v>7623500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -952,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1039200</v>
+        <v>1037100</v>
       </c>
       <c r="E18" s="3">
-        <v>1079700</v>
+        <v>1077600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>471600</v>
+        <v>470700</v>
       </c>
       <c r="E20" s="3">
-        <v>635900</v>
+        <v>634600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1940600</v>
+        <v>1937000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1046,10 +1046,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>333400</v>
+        <v>332700</v>
       </c>
       <c r="E22" s="3">
-        <v>395400</v>
+        <v>394600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1073,10 +1073,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1177300</v>
+        <v>1175000</v>
       </c>
       <c r="E23" s="3">
-        <v>1320200</v>
+        <v>1317600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1100,10 +1100,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>627700</v>
+        <v>626500</v>
       </c>
       <c r="E24" s="3">
-        <v>723400</v>
+        <v>722000</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1154,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>549600</v>
+        <v>548600</v>
       </c>
       <c r="E26" s="3">
-        <v>596800</v>
+        <v>595600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1181,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159600</v>
+        <v>159300</v>
       </c>
       <c r="E27" s="3">
-        <v>147100</v>
+        <v>146800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1316,10 +1316,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-471600</v>
+        <v>-470700</v>
       </c>
       <c r="E32" s="3">
-        <v>-635900</v>
+        <v>-634600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1343,10 +1343,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159600</v>
+        <v>159300</v>
       </c>
       <c r="E33" s="3">
-        <v>147100</v>
+        <v>146800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1397,10 +1397,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159600</v>
+        <v>159300</v>
       </c>
       <c r="E35" s="3">
-        <v>147100</v>
+        <v>146800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1482,7 +1482,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7374300</v>
+        <v>7359900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1509,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1831400</v>
+        <v>1827800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2531600</v>
+        <v>2526600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1563,7 +1563,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10776300</v>
+        <v>10755300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1590,7 +1590,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2167400</v>
+        <v>2163200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1617,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24681000</v>
+        <v>24632800</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1644,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17474100</v>
+        <v>17439900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33285800</v>
+        <v>33220700</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1698,7 +1698,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2735100</v>
+        <v>2729800</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3070700</v>
+        <v>3064700</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1833,7 +1833,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81246900</v>
+        <v>81087900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4405000</v>
+        <v>4396400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1913,7 +1913,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6587200</v>
+        <v>6574300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1940,7 +1940,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11088100</v>
+        <v>11066400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1967,7 +1967,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22080300</v>
+        <v>22037100</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1994,7 +1994,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18853300</v>
+        <v>18816400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3503000</v>
+        <v>3496100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2129,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47902200</v>
+        <v>47808500</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17246100</v>
+        <v>17212400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2385,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33344700</v>
+        <v>33279400</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2471,10 +2471,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159600</v>
+        <v>159300</v>
       </c>
       <c r="E81" s="3">
-        <v>147100</v>
+        <v>146800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2511,7 +2511,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>430100</v>
+        <v>429300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2673,7 +2673,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>952100</v>
+        <v>950200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2713,7 +2713,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-709200</v>
+        <v>-707800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2794,7 +2794,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-416600</v>
+        <v>-415800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2834,7 +2834,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-662400</v>
+        <v>-661100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-731100</v>
+        <v>-729700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2969,7 +2969,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-221700</v>
+        <v>-221300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2996,7 +2996,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-417300</v>
+        <v>-416500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NDVLY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>NDVLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,35 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,20 +706,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8698500</v>
+        <v>12205500</v>
       </c>
       <c r="E8" s="3">
-        <v>8701100</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>8744200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8746800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -733,20 +736,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6371800</v>
+        <v>9455800</v>
       </c>
       <c r="E9" s="3">
-        <v>6258900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>6405300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6291800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -760,20 +766,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2326700</v>
+        <v>2749600</v>
       </c>
       <c r="E10" s="3">
-        <v>2442200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>2338900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2455000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,20 +870,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36200</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
-        <v>127200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>36400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>127900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -881,9 +900,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,19 +944,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7661400</v>
+        <v>10781100</v>
       </c>
       <c r="E17" s="3">
-        <v>7623500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>7701600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7663500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -945,20 +971,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1037100</v>
+        <v>1424300</v>
       </c>
       <c r="E18" s="3">
-        <v>1077600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>1042600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1083300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -972,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,19 +1018,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>470700</v>
+        <v>560900</v>
       </c>
       <c r="E20" s="3">
-        <v>634600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>473100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>638000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1012,17 +1045,20 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1937000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>2400900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1946900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1039,20 +1075,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>332700</v>
+        <v>691000</v>
       </c>
       <c r="E22" s="3">
-        <v>394600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>334500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>396700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1066,20 +1105,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1175000</v>
+        <v>1294200</v>
       </c>
       <c r="E23" s="3">
-        <v>1317600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>1181200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1324500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1093,20 +1135,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>626500</v>
+        <v>771100</v>
       </c>
       <c r="E24" s="3">
-        <v>722000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>629800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>725800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1120,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,20 +1195,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>548600</v>
+        <v>523100</v>
       </c>
       <c r="E26" s="3">
-        <v>595600</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>551400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>598800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1174,20 +1225,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159300</v>
+        <v>125200</v>
       </c>
       <c r="E27" s="3">
-        <v>146800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>147600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1201,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,20 +1375,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-470700</v>
+        <v>-560900</v>
       </c>
       <c r="E32" s="3">
-        <v>-634600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-473100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-638000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1336,20 +1405,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159300</v>
+        <v>125200</v>
       </c>
       <c r="E33" s="3">
-        <v>146800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>147600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1363,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,20 +1465,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159300</v>
+        <v>125200</v>
       </c>
       <c r="E35" s="3">
-        <v>146800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>147600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1417,26 +1495,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,16 +1561,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7359900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>6827900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7398600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1502,17 +1588,20 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1827800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>1985400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1837400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1529,17 +1618,20 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2526600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>1601900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2539900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1556,17 +1648,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10755300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>10057600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10811800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1583,17 +1678,20 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2163200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>1627000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2174600</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1610,17 +1708,20 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24632800</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>22099700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24762200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1637,17 +1738,20 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17439900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>18790600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17531600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1664,17 +1768,20 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33220700</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>31571200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>33395300</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1691,17 +1798,20 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2729800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>2770400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2744100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1718,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,17 +1888,20 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3064700</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>3795100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3080800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,17 +1948,20 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81087900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>79027000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>81514000</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,16 +2009,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4396400</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>4318400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4419500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1906,17 +2036,20 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6574300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>6837600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6608800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1933,17 +2066,20 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11066400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>11823000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11124500</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1960,17 +2096,20 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22037100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>22978900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22152900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1987,17 +2126,20 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18816400</v>
+        <v>18233300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>18915200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2014,17 +2156,20 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3496100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>3396800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3514500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,17 +2276,20 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47808500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>47813800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>48059700</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,17 +2440,20 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17212400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>15084200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17302800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,17 +2560,20 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33279400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>31213200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>33454300</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,26 +2620,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,20 +2655,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159300</v>
+        <v>125200</v>
       </c>
       <c r="E81" s="3">
-        <v>146800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>147600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2491,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,16 +2702,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>429300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+        <v>416000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>431500</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2531,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,17 +2879,20 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>950200</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>1408900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>955200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2693,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,16 +2926,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-707800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-926600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-711600</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,17 +3013,20 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-415800</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>213800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-418000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2814,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,16 +3060,17 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-661100</v>
+        <v>-632300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-664600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,17 +3177,20 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-729700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>-1895100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-733500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2962,17 +3207,20 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-221300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>-333900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-222400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2989,17 +3237,20 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-416500</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>-606300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-418700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3016,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
